--- a/bug test.xlsx
+++ b/bug test.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\enemySprite, player bullet, score, enemybulletTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\EdsGame2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8F46C5-AEE8-4C10-B275-D8D12E4BDEA1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10050" xr2:uid="{40905740-34B9-4498-8633-EEBC785E5900}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>Bug Testing</t>
   </si>
@@ -71,9 +70,6 @@
     <t>""</t>
   </si>
   <si>
-    <t>decline</t>
-  </si>
-  <si>
     <t>declined</t>
   </si>
   <si>
@@ -128,9 +124,6 @@
     <t>if player bullet hits an enemy</t>
   </si>
   <si>
-    <t>player will delete and score +1</t>
-  </si>
-  <si>
     <t>enemy  hits edge of screen, drop down and swap directions</t>
   </si>
   <si>
@@ -168,12 +161,48 @@
   </si>
   <si>
     <t>if player shoots all enemys, win screen displays</t>
+  </si>
+  <si>
+    <t>decline/reask</t>
+  </si>
+  <si>
+    <t>enemy will delete and score +1</t>
+  </si>
+  <si>
+    <t>""(nothing or cancel)</t>
+  </si>
+  <si>
+    <t>key pressed</t>
+  </si>
+  <si>
+    <t>PLAYER MOVE LEFT</t>
+  </si>
+  <si>
+    <t>if Right arrow pressed</t>
+  </si>
+  <si>
+    <t>if left arrow pressed</t>
+  </si>
+  <si>
+    <t>player move right</t>
+  </si>
+  <si>
+    <t>if player is moved off the screen either left or right</t>
+  </si>
+  <si>
+    <t>the player will loop to oppsoite side</t>
+  </si>
+  <si>
+    <t>if arrows not pressed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">player will stop mevement </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -203,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -211,6 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,33 +554,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD17976-D5DE-41E2-A1FC-C89111DB1A73}">
-  <dimension ref="A1:E30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -560,12 +590,12 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -579,221 +609,270 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
       <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
       <c r="D12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>33</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C26" t="s">
         <v>34</v>
       </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>35</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>36</v>
       </c>
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
         <v>42</v>
       </c>
-      <c r="D29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" t="s">
-        <v>18</v>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
